--- a/src/informesGenerados/HechosPrevenidos.xlsx
+++ b/src/informesGenerados/HechosPrevenidos.xlsx
@@ -2072,10 +2072,10 @@
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" scale="100" paperSize="9" fitToWidth="0" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>

--- a/src/informesGenerados/HechosPrevenidos.xlsx
+++ b/src/informesGenerados/HechosPrevenidos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>U/O</t>
   </si>
@@ -169,7 +169,25 @@
     <t>DTGT</t>
   </si>
   <si>
-    <t>Total</t>
+    <t>AG-5</t>
+  </si>
+  <si>
+    <t>AG-6</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>CTC</t>
+  </si>
+  <si>
+    <t>Unidad 49 desconocida</t>
+  </si>
+  <si>
+    <t>Unidad 50 desconocida</t>
+  </si>
+  <si>
+    <t>Unidad 51 desconocida</t>
   </si>
 </sst>
 </file>
@@ -657,7 +675,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
   <sheetPr/>
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScale="100" view="normal"/>
   </sheetViews>
@@ -945,7 +963,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="6">
         <v>0</v>
@@ -1011,7 +1029,7 @@
         <v>20</v>
       </c>
       <c r="B12" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="6">
         <v>0</v>
@@ -1275,7 +1293,7 @@
         <v>28</v>
       </c>
       <c r="B20" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C20" s="6">
         <v>0</v>
@@ -1374,7 +1392,7 @@
         <v>31</v>
       </c>
       <c r="B23" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" s="6">
         <v>0</v>
@@ -1407,7 +1425,7 @@
         <v>32</v>
       </c>
       <c r="B24" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C24" s="6">
         <v>0</v>
@@ -1416,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="6">
         <v>0</v>
@@ -1440,7 +1458,7 @@
         <v>33</v>
       </c>
       <c r="B25" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C25" s="6">
         <v>0</v>
@@ -1539,7 +1557,7 @@
         <v>36</v>
       </c>
       <c r="B28" s="6">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C28" s="6">
         <v>0</v>
@@ -1572,7 +1590,7 @@
         <v>37</v>
       </c>
       <c r="B29" s="6">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C29" s="6">
         <v>0</v>
@@ -1605,7 +1623,7 @@
         <v>38</v>
       </c>
       <c r="B30" s="6">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C30" s="6">
         <v>0</v>
@@ -1614,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" s="6">
         <v>0</v>
@@ -1638,7 +1656,7 @@
         <v>39</v>
       </c>
       <c r="B31" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C31" s="6">
         <v>0</v>
@@ -1671,7 +1689,7 @@
         <v>40</v>
       </c>
       <c r="B32" s="6">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C32" s="6">
         <v>0</v>
@@ -1704,7 +1722,7 @@
         <v>41</v>
       </c>
       <c r="B33" s="6">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C33" s="6">
         <v>0</v>
@@ -1737,7 +1755,7 @@
         <v>42</v>
       </c>
       <c r="B34" s="6">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C34" s="6">
         <v>0</v>
@@ -1770,7 +1788,7 @@
         <v>43</v>
       </c>
       <c r="B35" s="6">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C35" s="6">
         <v>0</v>
@@ -1836,7 +1854,7 @@
         <v>45</v>
       </c>
       <c r="B37" s="6">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C37" s="6">
         <v>0</v>
@@ -1869,7 +1887,7 @@
         <v>46</v>
       </c>
       <c r="B38" s="6">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C38" s="6">
         <v>0</v>
@@ -1878,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" s="6">
         <v>0</v>
@@ -1902,7 +1920,7 @@
         <v>47</v>
       </c>
       <c r="B39" s="6">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C39" s="6">
         <v>0</v>
@@ -1935,7 +1953,7 @@
         <v>48</v>
       </c>
       <c r="B40" s="6">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C40" s="6">
         <v>0</v>
@@ -1968,7 +1986,7 @@
         <v>49</v>
       </c>
       <c r="B41" s="6">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C41" s="6">
         <v>0</v>
@@ -2001,7 +2019,7 @@
         <v>50</v>
       </c>
       <c r="B42" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C42" s="6">
         <v>0</v>
@@ -2070,12 +2088,186 @@
         <v>0</v>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" scale="100" paperSize="9" fitToWidth="0" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
